--- a/data/case1/14/Q1_6.xlsx
+++ b/data/case1/14/Q1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.16648723402020238</v>
+        <v>0.15885515775920567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999941252554</v>
+        <v>-0.0059999999669528847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999509152673</v>
+        <v>-0.0039999999732707181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999104671815</v>
+        <v>-0.0079999999506661368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999548335765</v>
+        <v>-0.0029999999759615648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.034175201068840977</v>
+        <v>0.048840816333273196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998815829549</v>
+        <v>-0.0099999999362325731</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998861819428</v>
+        <v>-0.0099999999382598403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999707724925</v>
+        <v>-0.0019999999847661876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.063790258818464451</v>
+        <v>0.057421440591115314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999705072611</v>
+        <v>-0.0029999999836514135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999653924085</v>
+        <v>-0.0034999999807077131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999634441892</v>
+        <v>-0.003499999979666768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999204485306</v>
+        <v>-0.0079999999555617762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998708799609</v>
+        <v>-0.00099999999292865738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999781621369</v>
+        <v>-0.0019999999878912433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999798629986</v>
+        <v>-0.0019999999887314601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0083919290151879267</v>
+        <v>0.0086795838954012439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.046759153988993774</v>
+        <v>-0.047744225891290792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999548037124</v>
+        <v>-0.0039999999750719439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999542779108</v>
+        <v>-0.0039999999747948323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999541651121</v>
+        <v>-0.0039999999746331838</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999382475124</v>
+        <v>-0.0049999999661878292</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999789224177</v>
+        <v>-0.01999999988312684</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999786309175</v>
+        <v>-0.019999999881517461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999486361446</v>
+        <v>-0.0024999999739829804</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999436876585</v>
+        <v>-0.0024999999713664067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999297457549</v>
+        <v>-0.0019999999638438126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998660756901</v>
+        <v>-0.0069999999293299808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999355970779</v>
+        <v>-0.059999999643558954</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998537699781</v>
+        <v>-0.0069999999228098631</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999824639616</v>
+        <v>-0.0099999999064976919</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.00399999988154498</v>
+        <v>-0.0039999999383049101</v>
       </c>
     </row>
   </sheetData>
